--- a/Resultados/Escenario 6/X.xlsx
+++ b/Resultados/Escenario 6/X.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>4942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>3586</v>
+        <v>11805</v>
       </c>
     </row>
     <row r="17">
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>3470</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="19">
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>6694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>7708</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="54">
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>-0</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="65">
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>4650</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>4078</v>
+        <v>7495</v>
       </c>
     </row>
     <row r="75">
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>6272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>4879</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="91">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>228</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="93">
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>1476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>8417</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="101">
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2371,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2409,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>5460</v>
+        <v>109</v>
       </c>
     </row>
     <row r="121">
@@ -2789,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>2762</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125">
@@ -2808,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>2781</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="126">
@@ -2903,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>-0</v>
+        <v>9674</v>
       </c>
     </row>
     <row r="131">
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>3997</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>2668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>-0</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="149">
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3302,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3340,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>4297</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="154">
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>2549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -3511,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>5481</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="166">
@@ -3587,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3644,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>2226</v>
+        <v>7134</v>
       </c>
     </row>
     <row r="173">
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="181">
@@ -3872,7 +3872,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>954</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="182">
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>3347</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="185">
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>5721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>2751</v>
+        <v>200</v>
       </c>
     </row>
     <row r="194">
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="199">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>381</v>
       </c>
     </row>
     <row r="201">
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>1830</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="209">
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>7380</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="213">
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>5790</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="222">
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="227">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="229">
@@ -4841,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>4936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="241">
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>2789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -5164,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>5643</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="250">
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>1214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -5297,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>2448</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="257">
@@ -5335,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>34</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="261">
@@ -5468,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>2722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="269">
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>2748</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="271">
@@ -5696,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>5633</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="278">
@@ -5791,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>2347</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="283">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>3829</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="285">
@@ -5848,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -5905,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>1117</v>
+        <v>694</v>
       </c>
     </row>
     <row r="289">
@@ -5924,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -5962,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -5981,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -6019,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -6038,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>2672</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="297">
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -6095,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>2701</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="299">
@@ -6114,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>-0</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="303">
@@ -6190,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -6228,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>2318</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="306">
@@ -6247,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="E306" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -6285,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>0</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="311">
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>2382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="313">
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>1789</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="317">
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>3044</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="325">
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="E326" t="n">
-        <v>3692</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="327">
@@ -6760,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>3060</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="334">
@@ -6779,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="E334" t="n">
-        <v>1032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -6855,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="E338" t="n">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="339">
@@ -6893,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>704</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="341">
@@ -6969,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="E344" t="n">
-        <v>2563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -7007,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>2980</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="353">
@@ -7159,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="E354" t="n">
-        <v>1366</v>
+        <v>510</v>
       </c>
     </row>
     <row r="355">
@@ -7235,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="359">
@@ -7292,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>6235</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="362">
@@ -7387,7 +7387,7 @@
         <v>1</v>
       </c>
       <c r="E366" t="n">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="367">
@@ -7406,7 +7406,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -7425,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="E368" t="n">
-        <v>785</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="369">
@@ -7444,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -7463,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -7482,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -7501,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="E372" t="n">
-        <v>2737</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="373">
@@ -7520,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -7539,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="E374" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -7558,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -7577,7 +7577,7 @@
         <v>1</v>
       </c>
       <c r="E376" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -7596,7 +7596,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -7615,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -7634,7 +7634,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -7653,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>2916</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="381">
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -7691,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="383">
@@ -7710,7 +7710,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -7729,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -7748,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>4203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -7786,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -7824,7 +7824,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>699</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="390">
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="E390" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -7862,7 +7862,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -7881,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -7900,7 +7900,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -7919,7 +7919,7 @@
         <v>1</v>
       </c>
       <c r="E394" t="n">
-        <v>1076</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="395">
@@ -7957,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="E396" t="n">
-        <v>2324</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="397">
@@ -7976,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="E400" t="n">
-        <v>1445</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="401">
@@ -8185,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="n">
-        <v>2850</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="409">
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="n">
-        <v>2768</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="411">
@@ -8356,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>4510</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="418">
@@ -8451,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="n">
-        <v>1051.000000000025</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="423">
@@ -8470,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -8489,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="n">
-        <v>2298</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="425">
@@ -8508,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -8527,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -8565,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="E428" t="n">
-        <v>1664.999999999975</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="429">
@@ -8584,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -8603,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="E430" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -8622,7 +8622,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -8641,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="E432" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -8660,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -8679,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="E434" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -8698,7 +8698,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -8717,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="E436" t="n">
-        <v>2801</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="437">
@@ -8736,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -8755,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="E438" t="n">
-        <v>2233</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="439">
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -8793,7 +8793,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -8812,7 +8812,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -8831,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="E442" t="n">
-        <v>2427</v>
+        <v>959</v>
       </c>
     </row>
     <row r="443">
@@ -8850,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -8888,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>2477</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="446">
@@ -8907,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="E446" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -8926,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>48</v>
+        <v>152</v>
       </c>
     </row>
     <row r="449">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -8983,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="E450" t="n">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="451">
@@ -9021,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="E452" t="n">
-        <v>2247</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="453">
@@ -9097,7 +9097,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="n">
-        <v>1651</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="457">
@@ -9249,7 +9249,7 @@
         <v>1</v>
       </c>
       <c r="E464" t="n">
-        <v>2711</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="465">
@@ -9287,7 +9287,7 @@
         <v>1</v>
       </c>
       <c r="E466" t="n">
-        <v>2436</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="467">
@@ -9363,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="E470" t="n">
-        <v>2550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -9420,7 +9420,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>1987</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="474">
@@ -9477,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="n">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="477">
@@ -9515,7 +9515,7 @@
         <v>1</v>
       </c>
       <c r="E478" t="n">
-        <v>1008</v>
+        <v>1000.999999998862</v>
       </c>
     </row>
     <row r="479">
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="480">
@@ -9553,7 +9553,7 @@
         <v>1</v>
       </c>
       <c r="E480" t="n">
-        <v>2212</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="481">
@@ -9572,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="482">
@@ -9591,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="E482" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="483">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="484">
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="E484" t="n">
-        <v>1633</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="485">
@@ -9648,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="486">
@@ -9667,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="E486" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="487">
@@ -9686,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="488">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E488" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="489">
@@ -9724,7 +9724,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="490">
@@ -9743,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="E490" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="491">
@@ -9762,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="492">
@@ -9781,7 +9781,7 @@
         <v>1</v>
       </c>
       <c r="E492" t="n">
-        <v>2694</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="493">
@@ -9800,7 +9800,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="494">
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="E494" t="n">
-        <v>2400</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="495">
@@ -9838,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="496">
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="497">
@@ -9876,7 +9876,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="498">
@@ -9895,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="E498" t="n">
-        <v>23</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="499">
@@ -9914,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="500">
@@ -9952,7 +9952,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>4631</v>
+        <v>972</v>
       </c>
     </row>
     <row r="502">
@@ -9971,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="E502" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="503">
@@ -9990,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="504">
@@ -10009,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="E504" t="n">
-        <v>399</v>
+        <v>410.0000000011377</v>
       </c>
     </row>
     <row r="505">
@@ -10028,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="506">
@@ -10047,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="E506" t="n">
-        <v>990</v>
+        <v>983</v>
       </c>
     </row>
     <row r="507">
@@ -10085,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="E508" t="n">
-        <v>2177</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="509">
@@ -10161,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="E512" t="n">
-        <v>1616</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="513">
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="E520" t="n">
-        <v>2666</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="521">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E522" t="n">
-        <v>2365</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="523">
@@ -10427,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="E526" t="n">
-        <v>2110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -10484,7 +10484,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>2670</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="530">
@@ -10541,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="533">
@@ -10579,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="E534" t="n">
-        <v>974</v>
+        <v>967</v>
       </c>
     </row>
     <row r="535">
@@ -10617,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="E536" t="n">
-        <v>2143</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="537">
@@ -10693,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>1598</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="541">
@@ -10845,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="E548" t="n">
-        <v>2640</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="549">
@@ -10883,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="E550" t="n">
-        <v>2329</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="551">
@@ -10959,7 +10959,7 @@
         <v>1</v>
       </c>
       <c r="E554" t="n">
-        <v>2084</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="555">
@@ -11016,7 +11016,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>2816</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="558">
@@ -11073,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>416</v>
+        <v>436</v>
       </c>
     </row>
     <row r="561">
@@ -11111,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="E562" t="n">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="563">
@@ -11149,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="E564" t="n">
-        <v>2121</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="565">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>1574</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="569">
@@ -11377,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="E576" t="n">
-        <v>2646</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="577">
@@ -11415,7 +11415,7 @@
         <v>1</v>
       </c>
       <c r="E578" t="n">
-        <v>2293</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="579">
@@ -11491,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="E582" t="n">
-        <v>2026</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="583">
@@ -11548,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>2921</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="586">
@@ -11605,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>457</v>
+        <v>477</v>
       </c>
     </row>
     <row r="589">
@@ -11643,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="E590" t="n">
-        <v>950</v>
+        <v>945</v>
       </c>
     </row>
     <row r="591">
@@ -11681,7 +11681,7 @@
         <v>1</v>
       </c>
       <c r="E592" t="n">
-        <v>2098</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="593">
@@ -11757,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="E596" t="n">
-        <v>1550</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="597">
@@ -11795,7 +11795,7 @@
         <v>1</v>
       </c>
       <c r="E598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -11909,7 +11909,7 @@
         <v>1</v>
       </c>
       <c r="E604" t="n">
-        <v>2652</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="605">
@@ -11947,7 +11947,7 @@
         <v>1</v>
       </c>
       <c r="E606" t="n">
-        <v>2257</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="607">
@@ -12023,7 +12023,7 @@
         <v>1</v>
       </c>
       <c r="E610" t="n">
-        <v>1970</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="611">
@@ -12080,7 +12080,7 @@
         <v>1</v>
       </c>
       <c r="E613" t="n">
-        <v>3024</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="614">
@@ -12137,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="E616" t="n">
-        <v>498</v>
+        <v>518</v>
       </c>
     </row>
     <row r="617">
@@ -12175,7 +12175,7 @@
         <v>1</v>
       </c>
       <c r="E618" t="n">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="619">
@@ -12213,7 +12213,7 @@
         <v>1</v>
       </c>
       <c r="E620" t="n">
-        <v>2076</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="621">
@@ -12289,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="E624" t="n">
-        <v>1526</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="625">
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="E632" t="n">
-        <v>2658</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="633">
@@ -12479,7 +12479,7 @@
         <v>1</v>
       </c>
       <c r="E634" t="n">
-        <v>2221</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="635">
@@ -12555,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="E638" t="n">
-        <v>1912</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="639">
@@ -12612,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="E641" t="n">
-        <v>3129</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="642">
@@ -12669,7 +12669,7 @@
         <v>1</v>
       </c>
       <c r="E644" t="n">
-        <v>539</v>
+        <v>559</v>
       </c>
     </row>
     <row r="645">
@@ -12707,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="E646" t="n">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="647">
@@ -12745,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="E648" t="n">
-        <v>2053</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="649">
@@ -12821,7 +12821,7 @@
         <v>1</v>
       </c>
       <c r="E652" t="n">
-        <v>1502</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="653">
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="E660" t="n">
-        <v>2665</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="661">
@@ -13011,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="E662" t="n">
-        <v>2184</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="663">
@@ -13087,7 +13087,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>1855</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="667">
@@ -13144,7 +13144,7 @@
         <v>1</v>
       </c>
       <c r="E669" t="n">
-        <v>3233</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="670">
@@ -13201,7 +13201,7 @@
         <v>1</v>
       </c>
       <c r="E672" t="n">
-        <v>581</v>
+        <v>599</v>
       </c>
     </row>
     <row r="673">
@@ -13277,7 +13277,7 @@
         <v>1</v>
       </c>
       <c r="E676" t="n">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="677">
@@ -13543,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="691">
@@ -14037,7 +14037,7 @@
         <v>1</v>
       </c>
       <c r="E716" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="717">
@@ -14075,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="E718" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="719">
@@ -14341,7 +14341,7 @@
         <v>1</v>
       </c>
       <c r="E732" t="n">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="733">
@@ -14607,7 +14607,7 @@
         <v>1</v>
       </c>
       <c r="E746" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="747">
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E772" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="773">
@@ -15139,7 +15139,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="775">
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="E828" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="829">
@@ -16203,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="E830" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="831">
@@ -17229,7 +17229,7 @@
         <v>1</v>
       </c>
       <c r="E884" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="885">
@@ -17267,7 +17267,7 @@
         <v>1</v>
       </c>
       <c r="E886" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="887">
@@ -18293,7 +18293,7 @@
         <v>1</v>
       </c>
       <c r="E940" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="941">
@@ -18331,7 +18331,7 @@
         <v>1</v>
       </c>
       <c r="E942" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="943">
@@ -19357,7 +19357,7 @@
         <v>1</v>
       </c>
       <c r="E996" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="997">
@@ -19395,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="E998" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="999">
@@ -20421,7 +20421,7 @@
         <v>1</v>
       </c>
       <c r="E1052" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1053">
@@ -20459,7 +20459,7 @@
         <v>1</v>
       </c>
       <c r="E1054" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1055">
@@ -21485,7 +21485,7 @@
         <v>1</v>
       </c>
       <c r="E1108" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1109">
@@ -21523,7 +21523,7 @@
         <v>1</v>
       </c>
       <c r="E1110" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1111">
@@ -22549,7 +22549,7 @@
         <v>1</v>
       </c>
       <c r="E1164" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1165">
@@ -22587,7 +22587,7 @@
         <v>1</v>
       </c>
       <c r="E1166" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1167">
@@ -23613,7 +23613,7 @@
         <v>1</v>
       </c>
       <c r="E1220" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1221">
@@ -23651,7 +23651,7 @@
         <v>1</v>
       </c>
       <c r="E1222" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1223">
@@ -24677,7 +24677,7 @@
         <v>1</v>
       </c>
       <c r="E1276" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1277">
@@ -24715,7 +24715,7 @@
         <v>1</v>
       </c>
       <c r="E1278" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1279">
@@ -25741,7 +25741,7 @@
         <v>1</v>
       </c>
       <c r="E1332" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1333">
@@ -25779,7 +25779,7 @@
         <v>1</v>
       </c>
       <c r="E1334" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1335">
@@ -26805,7 +26805,7 @@
         <v>1</v>
       </c>
       <c r="E1388" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1389">
@@ -26843,7 +26843,7 @@
         <v>1</v>
       </c>
       <c r="E1390" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1391">
@@ -27869,7 +27869,7 @@
         <v>1</v>
       </c>
       <c r="E1444" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1445">
@@ -27907,7 +27907,7 @@
         <v>1</v>
       </c>
       <c r="E1446" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1447">
@@ -28933,7 +28933,7 @@
         <v>1</v>
       </c>
       <c r="E1500" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1501">
@@ -28971,7 +28971,7 @@
         <v>1</v>
       </c>
       <c r="E1502" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1503">
@@ -29997,7 +29997,7 @@
         <v>1</v>
       </c>
       <c r="E1556" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1557">
@@ -30035,7 +30035,7 @@
         <v>1</v>
       </c>
       <c r="E1558" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1559">
@@ -31061,7 +31061,7 @@
         <v>1</v>
       </c>
       <c r="E1612" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1613">
@@ -31099,7 +31099,7 @@
         <v>1</v>
       </c>
       <c r="E1614" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1615">
@@ -32125,7 +32125,7 @@
         <v>1</v>
       </c>
       <c r="E1668" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1669">
@@ -32163,7 +32163,7 @@
         <v>1</v>
       </c>
       <c r="E1670" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1671">
@@ -33189,7 +33189,7 @@
         <v>1</v>
       </c>
       <c r="E1724" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1725">
@@ -33227,7 +33227,7 @@
         <v>1</v>
       </c>
       <c r="E1726" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1727">
@@ -34253,7 +34253,7 @@
         <v>1</v>
       </c>
       <c r="E1780" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1781">
@@ -34291,7 +34291,7 @@
         <v>1</v>
       </c>
       <c r="E1782" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1783">
@@ -35317,7 +35317,7 @@
         <v>1</v>
       </c>
       <c r="E1836" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1837">
@@ -35355,7 +35355,7 @@
         <v>1</v>
       </c>
       <c r="E1838" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1839">
@@ -36381,7 +36381,7 @@
         <v>1</v>
       </c>
       <c r="E1892" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1893">
@@ -36419,7 +36419,7 @@
         <v>1</v>
       </c>
       <c r="E1894" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1895">
@@ -37445,7 +37445,7 @@
         <v>1</v>
       </c>
       <c r="E1948" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1949">
@@ -37483,7 +37483,7 @@
         <v>1</v>
       </c>
       <c r="E1950" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1951">
@@ -38509,7 +38509,7 @@
         <v>1</v>
       </c>
       <c r="E2004" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2005">
@@ -38547,7 +38547,7 @@
         <v>1</v>
       </c>
       <c r="E2006" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2007">
@@ -39573,7 +39573,7 @@
         <v>1</v>
       </c>
       <c r="E2060" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2061">
@@ -39611,7 +39611,7 @@
         <v>1</v>
       </c>
       <c r="E2062" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2063">
@@ -40637,7 +40637,7 @@
         <v>1</v>
       </c>
       <c r="E2116" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2117">
@@ -40675,7 +40675,7 @@
         <v>1</v>
       </c>
       <c r="E2118" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2119">
@@ -41701,7 +41701,7 @@
         <v>1</v>
       </c>
       <c r="E2172" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2173">
@@ -41739,7 +41739,7 @@
         <v>1</v>
       </c>
       <c r="E2174" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2175">
@@ -42765,7 +42765,7 @@
         <v>1</v>
       </c>
       <c r="E2228" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2229">
@@ -42803,7 +42803,7 @@
         <v>1</v>
       </c>
       <c r="E2230" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2231">
@@ -43829,7 +43829,7 @@
         <v>1</v>
       </c>
       <c r="E2284" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2285">
@@ -43867,7 +43867,7 @@
         <v>1</v>
       </c>
       <c r="E2286" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2287">
@@ -44893,7 +44893,7 @@
         <v>1</v>
       </c>
       <c r="E2340" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2341">
@@ -44931,7 +44931,7 @@
         <v>1</v>
       </c>
       <c r="E2342" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2343">
@@ -45957,7 +45957,7 @@
         <v>1</v>
       </c>
       <c r="E2396" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2397">
@@ -45995,7 +45995,7 @@
         <v>1</v>
       </c>
       <c r="E2398" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2399">
@@ -47021,7 +47021,7 @@
         <v>1</v>
       </c>
       <c r="E2452" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2453">
@@ -47059,7 +47059,7 @@
         <v>1</v>
       </c>
       <c r="E2454" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2455">
@@ -48085,7 +48085,7 @@
         <v>1</v>
       </c>
       <c r="E2508" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2509">
@@ -48123,7 +48123,7 @@
         <v>1</v>
       </c>
       <c r="E2510" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2511">
@@ -49149,7 +49149,7 @@
         <v>1</v>
       </c>
       <c r="E2564" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2565">
@@ -49187,7 +49187,7 @@
         <v>1</v>
       </c>
       <c r="E2566" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2567">
@@ -50213,7 +50213,7 @@
         <v>1</v>
       </c>
       <c r="E2620" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2621">
@@ -50251,7 +50251,7 @@
         <v>1</v>
       </c>
       <c r="E2622" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2623">
@@ -51277,7 +51277,7 @@
         <v>1</v>
       </c>
       <c r="E2676" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2677">
@@ -51315,7 +51315,7 @@
         <v>1</v>
       </c>
       <c r="E2678" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2679">
@@ -52341,7 +52341,7 @@
         <v>1</v>
       </c>
       <c r="E2732" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2733">
@@ -52379,7 +52379,7 @@
         <v>1</v>
       </c>
       <c r="E2734" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2735">
@@ -53405,7 +53405,7 @@
         <v>1</v>
       </c>
       <c r="E2788" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2789">
@@ -53443,7 +53443,7 @@
         <v>1</v>
       </c>
       <c r="E2790" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2791">
@@ -54469,7 +54469,7 @@
         <v>1</v>
       </c>
       <c r="E2844" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2845">
@@ -54507,7 +54507,7 @@
         <v>1</v>
       </c>
       <c r="E2846" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2847">
@@ -55533,7 +55533,7 @@
         <v>1</v>
       </c>
       <c r="E2900" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2901">
@@ -55571,7 +55571,7 @@
         <v>1</v>
       </c>
       <c r="E2902" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2903">
@@ -56597,7 +56597,7 @@
         <v>1</v>
       </c>
       <c r="E2956" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="2957">
@@ -56635,7 +56635,7 @@
         <v>1</v>
       </c>
       <c r="E2958" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="2959">
@@ -57661,7 +57661,7 @@
         <v>1</v>
       </c>
       <c r="E3012" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3013">
@@ -57699,7 +57699,7 @@
         <v>1</v>
       </c>
       <c r="E3014" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3015">
@@ -58725,7 +58725,7 @@
         <v>1</v>
       </c>
       <c r="E3068" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3069">
@@ -58763,7 +58763,7 @@
         <v>1</v>
       </c>
       <c r="E3070" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3071">
@@ -59789,7 +59789,7 @@
         <v>1</v>
       </c>
       <c r="E3124" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3125">
@@ -59827,7 +59827,7 @@
         <v>1</v>
       </c>
       <c r="E3126" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3127">
@@ -60853,7 +60853,7 @@
         <v>1</v>
       </c>
       <c r="E3180" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3181">
@@ -60891,7 +60891,7 @@
         <v>1</v>
       </c>
       <c r="E3182" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3183">
@@ -61917,7 +61917,7 @@
         <v>1</v>
       </c>
       <c r="E3236" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3237">
@@ -61955,7 +61955,7 @@
         <v>1</v>
       </c>
       <c r="E3238" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3239">
@@ -62981,7 +62981,7 @@
         <v>1</v>
       </c>
       <c r="E3292" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3293">
@@ -63019,7 +63019,7 @@
         <v>1</v>
       </c>
       <c r="E3294" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3295">
@@ -64045,7 +64045,7 @@
         <v>1</v>
       </c>
       <c r="E3348" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3349">
@@ -64083,7 +64083,7 @@
         <v>1</v>
       </c>
       <c r="E3350" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3351">
@@ -65109,7 +65109,7 @@
         <v>1</v>
       </c>
       <c r="E3404" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3405">
@@ -65147,7 +65147,7 @@
         <v>1</v>
       </c>
       <c r="E3406" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3407">
@@ -66173,7 +66173,7 @@
         <v>1</v>
       </c>
       <c r="E3460" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3461">
@@ -66211,7 +66211,7 @@
         <v>1</v>
       </c>
       <c r="E3462" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3463">
@@ -67237,7 +67237,7 @@
         <v>1</v>
       </c>
       <c r="E3516" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3517">
@@ -67275,7 +67275,7 @@
         <v>1</v>
       </c>
       <c r="E3518" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3519">
@@ -68301,7 +68301,7 @@
         <v>1</v>
       </c>
       <c r="E3572" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3573">
@@ -68339,7 +68339,7 @@
         <v>1</v>
       </c>
       <c r="E3574" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3575">
@@ -69365,7 +69365,7 @@
         <v>1</v>
       </c>
       <c r="E3628" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3629">
@@ -69403,7 +69403,7 @@
         <v>1</v>
       </c>
       <c r="E3630" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3631">
@@ -70429,7 +70429,7 @@
         <v>1</v>
       </c>
       <c r="E3684" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3685">
@@ -70467,7 +70467,7 @@
         <v>1</v>
       </c>
       <c r="E3686" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3687">
@@ -71797,7 +71797,7 @@
         <v>1</v>
       </c>
       <c r="E3756" t="n">
-        <v>2045</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="3757">
@@ -72063,7 +72063,7 @@
         <v>1</v>
       </c>
       <c r="E3770" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3771">
@@ -72557,7 +72557,7 @@
         <v>1</v>
       </c>
       <c r="E3796" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3797">
@@ -72595,7 +72595,7 @@
         <v>1</v>
       </c>
       <c r="E3798" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3799">
@@ -73621,7 +73621,7 @@
         <v>1</v>
       </c>
       <c r="E3852" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3853">
@@ -73659,7 +73659,7 @@
         <v>1</v>
       </c>
       <c r="E3854" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3855">
@@ -74685,7 +74685,7 @@
         <v>1</v>
       </c>
       <c r="E3908" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3909">
@@ -74723,7 +74723,7 @@
         <v>1</v>
       </c>
       <c r="E3910" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3911">
@@ -75749,7 +75749,7 @@
         <v>1</v>
       </c>
       <c r="E3964" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="3965">
@@ -75787,7 +75787,7 @@
         <v>1</v>
       </c>
       <c r="E3966" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="3967">
@@ -76813,7 +76813,7 @@
         <v>1</v>
       </c>
       <c r="E4020" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="4021">
@@ -76851,7 +76851,7 @@
         <v>1</v>
       </c>
       <c r="E4022" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="4023">
@@ -77877,7 +77877,7 @@
         <v>1</v>
       </c>
       <c r="E4076" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="4077">
@@ -77915,7 +77915,7 @@
         <v>1</v>
       </c>
       <c r="E4078" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="4079">
@@ -78941,7 +78941,7 @@
         <v>1</v>
       </c>
       <c r="E4132" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="4133">
@@ -78979,7 +78979,7 @@
         <v>1</v>
       </c>
       <c r="E4134" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="4135">
@@ -80005,7 +80005,7 @@
         <v>1</v>
       </c>
       <c r="E4188" t="n">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="4189">
@@ -80043,7 +80043,7 @@
         <v>1</v>
       </c>
       <c r="E4190" t="n">
-        <v>2168</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="4191">
